--- a/data/pca/factorExposure/factorExposure_2017-12-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +720,82 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008771942229973618</v>
+        <v>-0.01200469550673299</v>
       </c>
       <c r="C2">
-        <v>0.007810600332757959</v>
+        <v>-0.0390719517493597</v>
       </c>
       <c r="D2">
-        <v>0.001832197612009394</v>
+        <v>0.0286925853555222</v>
       </c>
       <c r="E2">
-        <v>0.0235828271056422</v>
+        <v>0.02612013256026815</v>
       </c>
       <c r="F2">
-        <v>0.05749829392367126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03226619037537574</v>
+      </c>
+      <c r="G2">
+        <v>-0.01381870268785851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05499054384054356</v>
+        <v>-0.05944943701043984</v>
       </c>
       <c r="C3">
-        <v>0.03766563910510219</v>
+        <v>-0.07787491009860509</v>
       </c>
       <c r="D3">
-        <v>0.008398694591886201</v>
+        <v>0.01390067550706489</v>
       </c>
       <c r="E3">
-        <v>-0.04554123719067039</v>
+        <v>0.07649411715720815</v>
       </c>
       <c r="F3">
-        <v>0.2413187632316181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05978474568571749</v>
+      </c>
+      <c r="G3">
+        <v>-0.06909253436814054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03097433261319565</v>
+        <v>-0.05533186441742723</v>
       </c>
       <c r="C4">
-        <v>0.02334088285366066</v>
+        <v>-0.06146784709263297</v>
       </c>
       <c r="D4">
-        <v>-0.01686810869964077</v>
+        <v>0.02199977158479972</v>
       </c>
       <c r="E4">
-        <v>0.03888787723472792</v>
+        <v>-0.002034819692875931</v>
       </c>
       <c r="F4">
-        <v>0.03581046797020914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01546932351612584</v>
+      </c>
+      <c r="G4">
+        <v>-0.0389670763223199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +812,220 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04322286986011316</v>
+        <v>-0.03240424221988568</v>
       </c>
       <c r="C6">
-        <v>0.03770596394508567</v>
+        <v>-0.05668851257207792</v>
       </c>
       <c r="D6">
-        <v>-0.00406348977897747</v>
+        <v>0.01605110955014035</v>
       </c>
       <c r="E6">
-        <v>0.05673341945199591</v>
+        <v>0.002414383473114317</v>
       </c>
       <c r="F6">
-        <v>0.03758068003330738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0139091268694331</v>
+      </c>
+      <c r="G6">
+        <v>-0.02104351344934057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0191266128555247</v>
+        <v>-0.01733015234892092</v>
       </c>
       <c r="C7">
-        <v>0.03459943445303871</v>
+        <v>-0.03833388900938316</v>
       </c>
       <c r="D7">
-        <v>-0.06376495359327997</v>
+        <v>0.01268916493243934</v>
       </c>
       <c r="E7">
-        <v>-0.00324354119714745</v>
+        <v>-0.01654872893919034</v>
       </c>
       <c r="F7">
-        <v>0.007948003674482066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008984097690815686</v>
+      </c>
+      <c r="G7">
+        <v>-0.07399321935480793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01548769663670062</v>
+        <v>0.004680995027759411</v>
       </c>
       <c r="C8">
-        <v>-0.002296783454634834</v>
+        <v>-0.01291746503572345</v>
       </c>
       <c r="D8">
-        <v>-0.01109663440483819</v>
+        <v>0.003704439267552878</v>
       </c>
       <c r="E8">
-        <v>0.01701978012458246</v>
+        <v>0.01203327733727971</v>
       </c>
       <c r="F8">
-        <v>0.02013692632281077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02417136865541373</v>
+      </c>
+      <c r="G8">
+        <v>-0.02458521112653791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02295644835770279</v>
+        <v>-0.02819975585786408</v>
       </c>
       <c r="C9">
-        <v>0.02523853674401266</v>
+        <v>-0.04121148879113435</v>
       </c>
       <c r="D9">
-        <v>-0.007110408076035173</v>
+        <v>0.0152564031309957</v>
       </c>
       <c r="E9">
-        <v>0.02537937071463249</v>
+        <v>0.0005783943652410646</v>
       </c>
       <c r="F9">
-        <v>0.0587169224877754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01888318108953174</v>
+      </c>
+      <c r="G9">
+        <v>-0.03041747309429601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08701367240193777</v>
+        <v>-0.08137311471862414</v>
       </c>
       <c r="C10">
-        <v>0.02394560634575764</v>
+        <v>0.186134737713283</v>
       </c>
       <c r="D10">
-        <v>0.03383041729501439</v>
+        <v>-0.01918183218464027</v>
       </c>
       <c r="E10">
-        <v>-0.1591757505078021</v>
+        <v>0.0171331388156751</v>
       </c>
       <c r="F10">
-        <v>0.02760707404107525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01413833280940272</v>
+      </c>
+      <c r="G10">
+        <v>-0.03555221979725542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01456941610987387</v>
+        <v>-0.03523698336598906</v>
       </c>
       <c r="C11">
-        <v>0.02572685926129168</v>
+        <v>-0.05275457257605001</v>
       </c>
       <c r="D11">
-        <v>0.007472798893476684</v>
+        <v>0.001052855904236647</v>
       </c>
       <c r="E11">
-        <v>0.04338498608927999</v>
+        <v>-0.006031368608253498</v>
       </c>
       <c r="F11">
-        <v>0.01782677261137506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02495870519425505</v>
+      </c>
+      <c r="G11">
+        <v>-0.01070183288356222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.02320973659203151</v>
+        <v>-0.03348904817955538</v>
       </c>
       <c r="C12">
-        <v>0.02600862427739353</v>
+        <v>-0.0445423476720923</v>
       </c>
       <c r="D12">
-        <v>-0.0005104598284842309</v>
+        <v>0.005412851566660401</v>
       </c>
       <c r="E12">
-        <v>0.04219153176532541</v>
+        <v>-0.01094332754355634</v>
       </c>
       <c r="F12">
-        <v>-0.007654561788443785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.005012261600258424</v>
+      </c>
+      <c r="G12">
+        <v>-0.01613299722047841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02566291626016439</v>
+        <v>-0.01033168717531235</v>
       </c>
       <c r="C13">
-        <v>0.0003072947635243603</v>
+        <v>-0.03283512215246569</v>
       </c>
       <c r="D13">
-        <v>-0.002650002714115981</v>
+        <v>0.02462889233874894</v>
       </c>
       <c r="E13">
-        <v>0.0252395980621393</v>
+        <v>0.01828815763638058</v>
       </c>
       <c r="F13">
-        <v>0.04464943683522705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02688849695035283</v>
+      </c>
+      <c r="G13">
+        <v>-0.02622550095149576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01000425076747526</v>
+        <v>-0.007261860610500596</v>
       </c>
       <c r="C14">
-        <v>0.01472295781463308</v>
+        <v>-0.02479555715923007</v>
       </c>
       <c r="D14">
-        <v>-0.01147601459419633</v>
+        <v>0.008331572453855969</v>
       </c>
       <c r="E14">
-        <v>0.006890345468595095</v>
+        <v>-0.008612793855896797</v>
       </c>
       <c r="F14">
-        <v>0.01116351017063616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.001742282268516808</v>
+      </c>
+      <c r="G14">
+        <v>-0.03289241647634483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1042,36 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01311070042848009</v>
+        <v>-0.0312294213644073</v>
       </c>
       <c r="C16">
-        <v>0.02646189134384104</v>
+        <v>-0.04242934156510002</v>
       </c>
       <c r="D16">
-        <v>0.001848739495569848</v>
+        <v>0.0007491240729488275</v>
       </c>
       <c r="E16">
-        <v>0.03976000773438062</v>
+        <v>-0.004425782646430957</v>
       </c>
       <c r="F16">
-        <v>0.02044098901055011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01308011509258756</v>
+      </c>
+      <c r="G16">
+        <v>-0.01505023494994067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1088,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1111,82 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01481424748252584</v>
+        <v>-0.02849382000716977</v>
       </c>
       <c r="C19">
-        <v>0.0229927779992222</v>
+        <v>-0.05459441661056039</v>
       </c>
       <c r="D19">
-        <v>0.001487534653837879</v>
+        <v>0.01486058479497556</v>
       </c>
       <c r="E19">
-        <v>0.03534745143177248</v>
+        <v>0.03289786226622708</v>
       </c>
       <c r="F19">
-        <v>0.05683926900053197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04094602728608034</v>
+      </c>
+      <c r="G19">
+        <v>-0.03317202468355671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.005440225949457389</v>
+        <v>-0.01012356300695228</v>
       </c>
       <c r="C20">
-        <v>0.003617024076251792</v>
+        <v>-0.03491232449845067</v>
       </c>
       <c r="D20">
-        <v>-0.002735940231186994</v>
+        <v>0.01302131372058986</v>
       </c>
       <c r="E20">
-        <v>-0.0008693213160423155</v>
+        <v>0.01758034296773781</v>
       </c>
       <c r="F20">
-        <v>0.02825977468096041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.008534550729022802</v>
+      </c>
+      <c r="G20">
+        <v>-0.02586562920493696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02554330534282137</v>
+        <v>-0.01149587297708701</v>
       </c>
       <c r="C21">
-        <v>0.03747414510979787</v>
+        <v>-0.03375831728101017</v>
       </c>
       <c r="D21">
-        <v>-0.01493485211114322</v>
+        <v>0.01580535811992728</v>
       </c>
       <c r="E21">
-        <v>0.01622068255998469</v>
+        <v>0.02360542155770305</v>
       </c>
       <c r="F21">
-        <v>0.0254749989138336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02015971423886277</v>
+      </c>
+      <c r="G21">
+        <v>-0.04869852191161999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1203,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1226,82 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0128661237471893</v>
+        <v>-0.02571703791005021</v>
       </c>
       <c r="C24">
-        <v>0.02315709282363211</v>
+        <v>-0.04574923683408182</v>
       </c>
       <c r="D24">
-        <v>0.003099266607567008</v>
+        <v>0.005958517723423639</v>
       </c>
       <c r="E24">
-        <v>0.03415418766299535</v>
+        <v>-0.009895803530364648</v>
       </c>
       <c r="F24">
-        <v>0.01729696090094885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02180820945252119</v>
+      </c>
+      <c r="G24">
+        <v>-0.01362736117402755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02820676735957129</v>
+        <v>-0.04319270600994006</v>
       </c>
       <c r="C25">
-        <v>0.02569618119626517</v>
+        <v>-0.0515813629854207</v>
       </c>
       <c r="D25">
-        <v>0.004501531301330218</v>
+        <v>0.009963883480252482</v>
       </c>
       <c r="E25">
-        <v>0.03747497319913658</v>
+        <v>-0.01603547144672368</v>
       </c>
       <c r="F25">
-        <v>0.03138674391541279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01604821706435979</v>
+      </c>
+      <c r="G25">
+        <v>-0.02001870142226128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0127129158221406</v>
+        <v>-0.004582348222907521</v>
       </c>
       <c r="C26">
-        <v>-0.006553857010530223</v>
+        <v>-0.009035499287525709</v>
       </c>
       <c r="D26">
-        <v>-0.01260290271913989</v>
+        <v>0.0239403598369922</v>
       </c>
       <c r="E26">
-        <v>0.002851225318777691</v>
+        <v>0.004689290730410732</v>
       </c>
       <c r="F26">
-        <v>0.03091871946573489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01002958134170531</v>
+      </c>
+      <c r="G26">
+        <v>-0.02304091706997386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1318,174 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1367173277049157</v>
+        <v>-0.1051950294297233</v>
       </c>
       <c r="C28">
-        <v>0.0244581456993379</v>
+        <v>0.2271806163168897</v>
       </c>
       <c r="D28">
-        <v>0.04250812753539021</v>
+        <v>-0.01070778246745084</v>
       </c>
       <c r="E28">
-        <v>-0.2292843387450892</v>
+        <v>0.005650947758199582</v>
       </c>
       <c r="F28">
-        <v>0.004637897397467664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.008671576942387606</v>
+      </c>
+      <c r="G28">
+        <v>-0.05140553265397044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01440405632219472</v>
+        <v>-0.01188014698766057</v>
       </c>
       <c r="C29">
-        <v>0.01051949134011305</v>
+        <v>-0.01830829234897645</v>
       </c>
       <c r="D29">
-        <v>-0.008966721228923264</v>
+        <v>0.007057724615539499</v>
       </c>
       <c r="E29">
-        <v>0.006477442974339751</v>
+        <v>-0.005930808434448191</v>
       </c>
       <c r="F29">
-        <v>0.01402125703881347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.005008179544211581</v>
+      </c>
+      <c r="G29">
+        <v>-0.02721699156919558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03470502354400742</v>
+        <v>-0.03811667510989411</v>
       </c>
       <c r="C30">
-        <v>0.01553288050009776</v>
+        <v>-0.07191950955035628</v>
       </c>
       <c r="D30">
-        <v>0.05004319903847464</v>
+        <v>0.02687757259598423</v>
       </c>
       <c r="E30">
-        <v>0.07506531324500959</v>
+        <v>0.01603537924991564</v>
       </c>
       <c r="F30">
-        <v>0.06529539010254624</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04265966791098999</v>
+      </c>
+      <c r="G30">
+        <v>0.009342934370450414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02427757158210018</v>
+        <v>-0.04295358172782323</v>
       </c>
       <c r="C31">
-        <v>0.0510548309096812</v>
+        <v>-0.02861445841326799</v>
       </c>
       <c r="D31">
-        <v>0.0008276890894698703</v>
+        <v>0.00268361204076217</v>
       </c>
       <c r="E31">
-        <v>0.0142675291201037</v>
+        <v>-0.01739204349258789</v>
       </c>
       <c r="F31">
-        <v>-0.004012279305115157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.03160326591392436</v>
+      </c>
+      <c r="G31">
+        <v>-0.02374939715633933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01323946957481159</v>
+        <v>-0.005618480504630823</v>
       </c>
       <c r="C32">
-        <v>0.02644050271274178</v>
+        <v>-0.03517527884594711</v>
       </c>
       <c r="D32">
-        <v>-0.01859829951713007</v>
+        <v>-0.00479806552146241</v>
       </c>
       <c r="E32">
-        <v>0.01587214060142793</v>
+        <v>0.01584115430846825</v>
       </c>
       <c r="F32">
-        <v>0.0372748274177339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0739324005559521</v>
+      </c>
+      <c r="G32">
+        <v>-0.05497993085295132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02394819200001194</v>
+        <v>-0.02815289637797438</v>
       </c>
       <c r="C33">
-        <v>0.02102463292400224</v>
+        <v>-0.05122445881718125</v>
       </c>
       <c r="D33">
-        <v>0.02158187408185958</v>
+        <v>0.0138412144725867</v>
       </c>
       <c r="E33">
-        <v>0.03615247573107098</v>
+        <v>0.01401784856681207</v>
       </c>
       <c r="F33">
-        <v>0.03801491751772316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02226829189597374</v>
+      </c>
+      <c r="G33">
+        <v>-0.01808206297310826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01082833267478987</v>
+        <v>-0.04567222307405773</v>
       </c>
       <c r="C34">
-        <v>0.03554155227218297</v>
+        <v>-0.05247282800500618</v>
       </c>
       <c r="D34">
-        <v>-0.003585010442969072</v>
+        <v>-0.006190237571193257</v>
       </c>
       <c r="E34">
-        <v>0.03768352789283558</v>
+        <v>-0.01516519295786889</v>
       </c>
       <c r="F34">
-        <v>0.0185000952238765</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0215061763047441</v>
+      </c>
+      <c r="G34">
+        <v>-0.02447767422863944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1502,36 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01834362567608028</v>
+        <v>-0.009374979902327746</v>
       </c>
       <c r="C36">
-        <v>0.004893492851861369</v>
+        <v>-0.004828075753809107</v>
       </c>
       <c r="D36">
-        <v>-0.004534742412526044</v>
+        <v>0.01113651777249677</v>
       </c>
       <c r="E36">
-        <v>0.003126281969554023</v>
+        <v>-0.003157335125458588</v>
       </c>
       <c r="F36">
-        <v>0.01453006192744044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0002582521769881766</v>
+      </c>
+      <c r="G36">
+        <v>-0.01600793619922072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1548,174 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003307918568879391</v>
+        <v>-0.03093824727642773</v>
       </c>
       <c r="C38">
-        <v>0.034224178367493</v>
+        <v>-0.02284881002755642</v>
       </c>
       <c r="D38">
-        <v>0.01138219865059544</v>
+        <v>-0.008310273404778232</v>
       </c>
       <c r="E38">
-        <v>0.01091464400958801</v>
+        <v>-0.00338271290013684</v>
       </c>
       <c r="F38">
-        <v>0.04425994687577094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.004989446959401875</v>
+      </c>
+      <c r="G38">
+        <v>-0.0236963467573969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.007619031347421899</v>
+        <v>-0.03082403001547819</v>
       </c>
       <c r="C39">
-        <v>0.02291127486564368</v>
+        <v>-0.08284417085657284</v>
       </c>
       <c r="D39">
-        <v>-0.007806985878837387</v>
+        <v>0.01150674757977503</v>
       </c>
       <c r="E39">
-        <v>0.06671607877427872</v>
+        <v>0.006422122637545017</v>
       </c>
       <c r="F39">
-        <v>0.05175950441091066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.03879132293063499</v>
+      </c>
+      <c r="G39">
+        <v>-0.01650973198783631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01914829337476807</v>
+        <v>-0.01929061435162481</v>
       </c>
       <c r="C40">
-        <v>0.02096050484154699</v>
+        <v>-0.03120152068086996</v>
       </c>
       <c r="D40">
-        <v>0.004240684799815099</v>
+        <v>0.01281722737633031</v>
       </c>
       <c r="E40">
-        <v>0.04199185153730477</v>
+        <v>0.01160804342843585</v>
       </c>
       <c r="F40">
-        <v>0.0386610313036053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02383237351479779</v>
+      </c>
+      <c r="G40">
+        <v>-0.01741137218397511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01235239668437292</v>
+        <v>-0.01116466937492627</v>
       </c>
       <c r="C41">
-        <v>0.009198078897685126</v>
+        <v>0.002586117776819178</v>
       </c>
       <c r="D41">
-        <v>0.004678568933410107</v>
+        <v>0.003247739829660685</v>
       </c>
       <c r="E41">
-        <v>-0.01160215949466178</v>
+        <v>-0.007506835147051466</v>
       </c>
       <c r="F41">
-        <v>0.005107435733778129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0007796167644694049</v>
+      </c>
+      <c r="G41">
+        <v>-0.009882358815148196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.1288626859716268</v>
+        <v>-0.03887247012246942</v>
       </c>
       <c r="C42">
-        <v>0.04379754125520068</v>
+        <v>-0.05454905614970383</v>
       </c>
       <c r="D42">
-        <v>0.103486482750204</v>
+        <v>0.1029556016506677</v>
       </c>
       <c r="E42">
-        <v>0.152646823900799</v>
+        <v>0.073219408121283</v>
       </c>
       <c r="F42">
-        <v>0.1971726270117451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1185631640445974</v>
+      </c>
+      <c r="G42">
+        <v>0.2213955857284908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01668340884131105</v>
+        <v>-0.02616969120612834</v>
       </c>
       <c r="C43">
-        <v>0.008572210220247577</v>
+        <v>-0.006183652649657471</v>
       </c>
       <c r="D43">
-        <v>0.004892854928950103</v>
+        <v>0.003307407644102559</v>
       </c>
       <c r="E43">
-        <v>-0.006355737282456021</v>
+        <v>-0.004862549374396781</v>
       </c>
       <c r="F43">
-        <v>0.006361002031661143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.001491365605694845</v>
+      </c>
+      <c r="G43">
+        <v>-0.01326472125263445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0002711957647178382</v>
+        <v>-0.01647039554604073</v>
       </c>
       <c r="C44">
-        <v>0.01487505793374097</v>
+        <v>-0.04874821263927819</v>
       </c>
       <c r="D44">
-        <v>-0.008853140281383129</v>
+        <v>0.006541353407000894</v>
       </c>
       <c r="E44">
-        <v>0.01425147911465362</v>
+        <v>0.01607473253485286</v>
       </c>
       <c r="F44">
-        <v>0.07377605390556968</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02362529298960496</v>
+      </c>
+      <c r="G44">
+        <v>-0.03103175405655667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1732,82 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006832917478068541</v>
+        <v>-0.001108110688356882</v>
       </c>
       <c r="C46">
-        <v>0.00824947563859512</v>
+        <v>-0.01548435773056561</v>
       </c>
       <c r="D46">
-        <v>-0.004362366176814213</v>
+        <v>0.0115284290013698</v>
       </c>
       <c r="E46">
-        <v>0.02400551009447505</v>
+        <v>-0.007490958882277842</v>
       </c>
       <c r="F46">
-        <v>0.03472955123075246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006653701478602003</v>
+      </c>
+      <c r="G46">
+        <v>-0.02025352234907322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0438154838135178</v>
+        <v>-0.07363663208686838</v>
       </c>
       <c r="C47">
-        <v>0.06184793097419941</v>
+        <v>-0.05988618025562931</v>
       </c>
       <c r="D47">
-        <v>0.01712308987134351</v>
+        <v>-0.005295355517082331</v>
       </c>
       <c r="E47">
-        <v>0.0290751730748278</v>
+        <v>-0.01953135816402742</v>
       </c>
       <c r="F47">
-        <v>-0.03611669112265922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0610432188123094</v>
+      </c>
+      <c r="G47">
+        <v>-0.01481742892129831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0227678017460094</v>
+        <v>-0.01566436290320228</v>
       </c>
       <c r="C48">
-        <v>0.01686182265645001</v>
+        <v>-0.01016413724566947</v>
       </c>
       <c r="D48">
-        <v>-0.0007232500707542763</v>
+        <v>0.0009142087408385189</v>
       </c>
       <c r="E48">
-        <v>0.006578354395107454</v>
+        <v>-0.007986200896473063</v>
       </c>
       <c r="F48">
-        <v>0.0169163912895616</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01151608317417743</v>
+      </c>
+      <c r="G48">
+        <v>-0.01776636060251571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1824,59 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04048078975504782</v>
+        <v>-0.07656316621897992</v>
       </c>
       <c r="C50">
-        <v>0.07678461227868112</v>
+        <v>-0.06150484299022191</v>
       </c>
       <c r="D50">
-        <v>-0.01088426347326524</v>
+        <v>-0.003994618327946052</v>
       </c>
       <c r="E50">
-        <v>0.0421190701252963</v>
+        <v>-0.02056137787148965</v>
       </c>
       <c r="F50">
-        <v>-0.01666744264326951</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05930291800512497</v>
+      </c>
+      <c r="G50">
+        <v>-0.03886368151618191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01075491174701654</v>
+        <v>-0.01672229235832225</v>
       </c>
       <c r="C51">
-        <v>0.008019731889527357</v>
+        <v>-0.02795312269738043</v>
       </c>
       <c r="D51">
-        <v>-0.00831620816968192</v>
+        <v>0.008629016981243621</v>
       </c>
       <c r="E51">
-        <v>-0.01878908312853316</v>
+        <v>0.005858907908519673</v>
       </c>
       <c r="F51">
-        <v>0.05457004837247222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03633095731977824</v>
+      </c>
+      <c r="G51">
+        <v>-0.03923710361358337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +1893,220 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.05984204201574427</v>
+        <v>-0.09900981730700784</v>
       </c>
       <c r="C53">
-        <v>0.07918077678836992</v>
+        <v>-0.07292814012896558</v>
       </c>
       <c r="D53">
-        <v>0.002379883033981644</v>
+        <v>-0.006347529087182176</v>
       </c>
       <c r="E53">
-        <v>0.05945628756158452</v>
+        <v>-0.0419836704800036</v>
       </c>
       <c r="F53">
-        <v>-0.0619205985483182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0658462758408901</v>
+      </c>
+      <c r="G53">
+        <v>-0.01735552760444282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01702329961427063</v>
+        <v>-0.02814326286322314</v>
       </c>
       <c r="C54">
-        <v>0.02627112559826307</v>
+        <v>-0.003643296069752219</v>
       </c>
       <c r="D54">
-        <v>-0.001141510080978838</v>
+        <v>-0.004403404379051234</v>
       </c>
       <c r="E54">
-        <v>0.0003963184177945436</v>
+        <v>-0.0001714438252850409</v>
       </c>
       <c r="F54">
-        <v>-0.0004843345421654841</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.003419598404787004</v>
+      </c>
+      <c r="G54">
+        <v>-0.02655718688904707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.04235518787435298</v>
+        <v>-0.07566831529868137</v>
       </c>
       <c r="C55">
-        <v>0.06430314766398632</v>
+        <v>-0.06657199719496897</v>
       </c>
       <c r="D55">
-        <v>0.008131997528973938</v>
+        <v>-0.005305083423131786</v>
       </c>
       <c r="E55">
-        <v>0.06836901044620937</v>
+        <v>-0.03033463158201288</v>
       </c>
       <c r="F55">
-        <v>-0.04007724033331465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05914702811404644</v>
+      </c>
+      <c r="G55">
+        <v>-0.005331411195355148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.09445278554847834</v>
+        <v>-0.1506861132758055</v>
       </c>
       <c r="C56">
-        <v>0.1019170232448041</v>
+        <v>-0.09448684821061638</v>
       </c>
       <c r="D56">
-        <v>0.01525556147240616</v>
+        <v>-0.01523853126528649</v>
       </c>
       <c r="E56">
-        <v>0.08445519589778662</v>
+        <v>-0.04484358707141764</v>
       </c>
       <c r="F56">
-        <v>-0.08949309860180424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1018046380807676</v>
+      </c>
+      <c r="G56">
+        <v>0.005028316442381398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.04461280114872344</v>
+        <v>-0.01346088705958375</v>
       </c>
       <c r="C57">
-        <v>0.003562802115247579</v>
+        <v>-0.01158968367121027</v>
       </c>
       <c r="D57">
-        <v>-0.002628113078375367</v>
+        <v>0.02366215112163871</v>
       </c>
       <c r="E57">
-        <v>0.03577142109114268</v>
+        <v>0.02926383630354588</v>
       </c>
       <c r="F57">
-        <v>0.04005592505786824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0145389370376779</v>
+      </c>
+      <c r="G57">
+        <v>-0.02267020266758288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1096292583568272</v>
+        <v>-0.06387932885157134</v>
       </c>
       <c r="C58">
-        <v>0.06581899480053084</v>
+        <v>-0.07146559742970152</v>
       </c>
       <c r="D58">
-        <v>0.1364443865367534</v>
+        <v>0.01786527741927985</v>
       </c>
       <c r="E58">
-        <v>0.1238825200558588</v>
+        <v>0.942199698309343</v>
       </c>
       <c r="F58">
-        <v>0.4965793367838338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2475063532549045</v>
+      </c>
+      <c r="G58">
+        <v>-0.06719255888268862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.143538713161954</v>
+        <v>-0.1446943659545725</v>
       </c>
       <c r="C59">
-        <v>0.01582314004768184</v>
+        <v>0.2176479652126732</v>
       </c>
       <c r="D59">
-        <v>0.06279811358315546</v>
+        <v>-0.0178751536998846</v>
       </c>
       <c r="E59">
-        <v>-0.1970981814166537</v>
+        <v>0.01614148957856882</v>
       </c>
       <c r="F59">
-        <v>0.04794580314857003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01096070390630907</v>
+      </c>
+      <c r="G59">
+        <v>-0.0182170572349582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1686451718882216</v>
+        <v>-0.2949278957068683</v>
       </c>
       <c r="C60">
-        <v>0.09219405456564105</v>
+        <v>-0.07742098412911727</v>
       </c>
       <c r="D60">
-        <v>0.0646575578344326</v>
+        <v>0.00652879071929614</v>
       </c>
       <c r="E60">
-        <v>0.05106328874261669</v>
+        <v>0.03825261636623851</v>
       </c>
       <c r="F60">
-        <v>0.2232617793594772</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3869861557526071</v>
+      </c>
+      <c r="G60">
+        <v>0.04054172382772913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02049627835817552</v>
+        <v>-0.03128515007026451</v>
       </c>
       <c r="C61">
-        <v>0.02937129797124997</v>
+        <v>-0.06347396353009714</v>
       </c>
       <c r="D61">
-        <v>0.002697452711333407</v>
+        <v>0.004824309891351655</v>
       </c>
       <c r="E61">
-        <v>0.05538550717553489</v>
+        <v>0.002107079428887841</v>
       </c>
       <c r="F61">
-        <v>0.03341137888750979</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02437729078128863</v>
+      </c>
+      <c r="G61">
+        <v>-0.01719573091082117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2123,174 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01110435273704941</v>
+        <v>-0.01012243280471378</v>
       </c>
       <c r="C63">
-        <v>0.01490907393727479</v>
+        <v>-0.02824252350790374</v>
       </c>
       <c r="D63">
-        <v>-0.00440015041542248</v>
+        <v>0.007870708382838959</v>
       </c>
       <c r="E63">
-        <v>0.02070716785291455</v>
+        <v>-0.01881734418666769</v>
       </c>
       <c r="F63">
-        <v>-0.0004731820051375812</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01016619486325392</v>
+      </c>
+      <c r="G63">
+        <v>-0.0228913861790356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02941159968185939</v>
+        <v>-0.04602875619733524</v>
       </c>
       <c r="C64">
-        <v>0.0407995655082955</v>
+        <v>-0.03486226233054694</v>
       </c>
       <c r="D64">
-        <v>0.007039674918751257</v>
+        <v>0.004374987320473409</v>
       </c>
       <c r="E64">
-        <v>0.03916268106753289</v>
+        <v>-0.01445267785058058</v>
       </c>
       <c r="F64">
-        <v>0.01880208189741801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01360316642099113</v>
+      </c>
+      <c r="G64">
+        <v>-0.01406831412330122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.04901999775168366</v>
+        <v>-0.07921203862932868</v>
       </c>
       <c r="C65">
-        <v>0.04313764146241299</v>
+        <v>-0.06630378986439199</v>
       </c>
       <c r="D65">
-        <v>-0.002146426908051203</v>
+        <v>0.01479718826324019</v>
       </c>
       <c r="E65">
-        <v>0.06026579618071915</v>
+        <v>-0.0004756639968056548</v>
       </c>
       <c r="F65">
-        <v>0.03500763841494479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03725097366606075</v>
+      </c>
+      <c r="G65">
+        <v>-0.00986230872749114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.02021852516871053</v>
+        <v>-0.0533187497652149</v>
       </c>
       <c r="C66">
-        <v>0.03714927041112104</v>
+        <v>-0.1163210040009094</v>
       </c>
       <c r="D66">
-        <v>0.01519650588158519</v>
+        <v>0.01068608850888672</v>
       </c>
       <c r="E66">
-        <v>0.08814769465340362</v>
+        <v>0.00912011854128698</v>
       </c>
       <c r="F66">
-        <v>0.0353413542488013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04719548220930639</v>
+      </c>
+      <c r="G66">
+        <v>-0.005738152032040469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0229156391382142</v>
+        <v>-0.05590237601931267</v>
       </c>
       <c r="C67">
-        <v>0.03875419489534537</v>
+        <v>-0.02504933082774693</v>
       </c>
       <c r="D67">
-        <v>0.0145470062632013</v>
+        <v>-0.007082852153741733</v>
       </c>
       <c r="E67">
-        <v>0.01282749690800892</v>
+        <v>-0.009394978794625777</v>
       </c>
       <c r="F67">
-        <v>0.02737857815940588</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.003826259382395293</v>
+      </c>
+      <c r="G67">
+        <v>-0.02373831517025862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1409056889726405</v>
+        <v>-0.1166079419995991</v>
       </c>
       <c r="C68">
-        <v>-0.00141715453224205</v>
+        <v>0.2704507060826397</v>
       </c>
       <c r="D68">
-        <v>0.05041632572098267</v>
+        <v>0.0005013849497743474</v>
       </c>
       <c r="E68">
-        <v>-0.208541572153652</v>
+        <v>0.0125882829835001</v>
       </c>
       <c r="F68">
-        <v>0.008576811510362688</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01835899492172562</v>
+      </c>
+      <c r="G68">
+        <v>-0.017927166120777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03033112571997751</v>
+        <v>-0.07695180769364475</v>
       </c>
       <c r="C69">
-        <v>0.05611405467423818</v>
+        <v>-0.05792455195096764</v>
       </c>
       <c r="D69">
-        <v>0.01267496232329508</v>
+        <v>-0.009792694416823721</v>
       </c>
       <c r="E69">
-        <v>0.03449606731135692</v>
+        <v>-0.0361441159933867</v>
       </c>
       <c r="F69">
-        <v>-0.02462023582201546</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03819761390460084</v>
+      </c>
+      <c r="G69">
+        <v>-0.01179387634653824</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2307,197 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1228934317122127</v>
+        <v>-0.118628803389751</v>
       </c>
       <c r="C71">
-        <v>0.01131262686882578</v>
+        <v>0.2282934631173032</v>
       </c>
       <c r="D71">
-        <v>0.03919980262405099</v>
+        <v>-0.008384692702200132</v>
       </c>
       <c r="E71">
-        <v>-0.2019848383521244</v>
+        <v>0.02078962200743687</v>
       </c>
       <c r="F71">
-        <v>0.02216581429239422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0235181421445054</v>
+      </c>
+      <c r="G71">
+        <v>-0.03170373053770466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0606832644827757</v>
+        <v>-0.08403539224393132</v>
       </c>
       <c r="C72">
-        <v>0.1314187425351931</v>
+        <v>-0.0795435052854556</v>
       </c>
       <c r="D72">
-        <v>0.04397309919153931</v>
+        <v>-0.009380741209790006</v>
       </c>
       <c r="E72">
-        <v>0.1236393325553529</v>
+        <v>-0.0184643632500594</v>
       </c>
       <c r="F72">
-        <v>0.1497782336489304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04011524187629194</v>
+      </c>
+      <c r="G72">
+        <v>0.006350641147872935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1985929236531461</v>
+        <v>-0.4084611365558363</v>
       </c>
       <c r="C73">
-        <v>0.1146204785210625</v>
+        <v>-0.09236073837456961</v>
       </c>
       <c r="D73">
-        <v>0.128099666297475</v>
+        <v>0.009872821216822732</v>
       </c>
       <c r="E73">
-        <v>0.09147774007538816</v>
+        <v>0.08962552596544154</v>
       </c>
       <c r="F73">
-        <v>0.3004212961644432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5307368055399995</v>
+      </c>
+      <c r="G73">
+        <v>0.09243375101713366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08062418127043385</v>
+        <v>-0.1186920808473366</v>
       </c>
       <c r="C74">
-        <v>0.09955188994055267</v>
+        <v>-0.1128803996295103</v>
       </c>
       <c r="D74">
-        <v>0.02478135111122117</v>
+        <v>-0.01101692740144489</v>
       </c>
       <c r="E74">
-        <v>0.08927925867711319</v>
+        <v>-0.04116188114875455</v>
       </c>
       <c r="F74">
-        <v>-0.07774479651934942</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07215150933065205</v>
+      </c>
+      <c r="G74">
+        <v>-0.009372247328494752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1750865547915952</v>
+        <v>-0.2678218066205344</v>
       </c>
       <c r="C75">
-        <v>0.1775477204547396</v>
+        <v>-0.1358825801550256</v>
       </c>
       <c r="D75">
-        <v>0.05116428468487665</v>
+        <v>-0.03232481087808833</v>
       </c>
       <c r="E75">
-        <v>0.1365431228163902</v>
+        <v>-0.0664860373107935</v>
       </c>
       <c r="F75">
-        <v>-0.1575888516852909</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2202374046074127</v>
+      </c>
+      <c r="G75">
+        <v>0.03954487094942633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1459999542485503</v>
+        <v>-0.1464140831483141</v>
       </c>
       <c r="C76">
-        <v>0.191133035665486</v>
+        <v>-0.1159559750506939</v>
       </c>
       <c r="D76">
-        <v>0.0335773633026636</v>
+        <v>-0.02325538595684084</v>
       </c>
       <c r="E76">
-        <v>0.1409608268034856</v>
+        <v>-0.07197969637392712</v>
       </c>
       <c r="F76">
-        <v>-0.2277776035725906</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1411926852260343</v>
+      </c>
+      <c r="G76">
+        <v>0.001759197687749229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03057437605612898</v>
+        <v>-0.06003537956267164</v>
       </c>
       <c r="C77">
-        <v>0.02554822819204005</v>
+        <v>-0.05980166936562713</v>
       </c>
       <c r="D77">
-        <v>-0.00034884467020681</v>
+        <v>0.0115973918542316</v>
       </c>
       <c r="E77">
-        <v>0.05544523401795583</v>
+        <v>0.02979851486546748</v>
       </c>
       <c r="F77">
-        <v>0.05984970714965584</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01860632807555312</v>
+      </c>
+      <c r="G77">
+        <v>-0.03600486480956449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02130847434600925</v>
+        <v>-0.04114093008516119</v>
       </c>
       <c r="C78">
-        <v>0.02020531537571022</v>
+        <v>-0.05258339762022167</v>
       </c>
       <c r="D78">
-        <v>-0.006106959067714781</v>
+        <v>0.005222804270576573</v>
       </c>
       <c r="E78">
-        <v>0.04716968251720718</v>
+        <v>0.01641074951522413</v>
       </c>
       <c r="F78">
-        <v>0.06334073732339879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04096271796753029</v>
+      </c>
+      <c r="G78">
+        <v>-0.02909308295150485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2514,105 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.1031218977839685</v>
+        <v>-0.06597341426772059</v>
       </c>
       <c r="C80">
-        <v>0.4250169376941973</v>
+        <v>-0.07709777322715575</v>
       </c>
       <c r="D80">
-        <v>-0.8537982578581548</v>
+        <v>0.01330531352833682</v>
       </c>
       <c r="E80">
-        <v>-0.1723425339442201</v>
+        <v>-0.07541114200950386</v>
       </c>
       <c r="F80">
-        <v>0.1156952883119614</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01491254711050762</v>
+      </c>
+      <c r="G80">
+        <v>-0.9237298699230648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1252209665441408</v>
+        <v>-0.1524845038985274</v>
       </c>
       <c r="C81">
-        <v>0.146616609646244</v>
+        <v>-0.08684276557020223</v>
       </c>
       <c r="D81">
-        <v>0.0303465318010995</v>
+        <v>-0.01788011436071521</v>
       </c>
       <c r="E81">
-        <v>0.1008503865642373</v>
+        <v>-0.04755719772514978</v>
       </c>
       <c r="F81">
-        <v>-0.1239835746882918</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1396918227757267</v>
+      </c>
+      <c r="G81">
+        <v>-0.00259524053719186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.04373018247963011</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03098077118109578</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002307077063690962</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01961824325507269</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003447401247620315</v>
+      </c>
+      <c r="G82">
+        <v>0.004374232540848851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02629837812777349</v>
+        <v>-0.02968349735747615</v>
       </c>
       <c r="C83">
-        <v>0.02458701466033319</v>
+        <v>-0.01852083207249822</v>
       </c>
       <c r="D83">
-        <v>0.01130096829774654</v>
+        <v>0.004893031770792423</v>
       </c>
       <c r="E83">
-        <v>0.008392210070148915</v>
+        <v>0.02515912689376495</v>
       </c>
       <c r="F83">
-        <v>0.04844521038305282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02330819161327278</v>
+      </c>
+      <c r="G83">
+        <v>-0.02694861930175386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2629,266 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1635378981844844</v>
+        <v>-0.245550654492568</v>
       </c>
       <c r="C85">
-        <v>0.1649655867345315</v>
+        <v>-0.1430964334240608</v>
       </c>
       <c r="D85">
-        <v>0.05104299199953292</v>
+        <v>-0.02096837592875838</v>
       </c>
       <c r="E85">
-        <v>0.1759614848352691</v>
+        <v>-0.1097605309726284</v>
       </c>
       <c r="F85">
-        <v>-0.1700910463288815</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2123701534949511</v>
+      </c>
+      <c r="G85">
+        <v>0.06554394784461122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01120051517311552</v>
+        <v>-0.009021571867185834</v>
       </c>
       <c r="C86">
-        <v>0.04202889448191531</v>
+        <v>-0.02279223633325794</v>
       </c>
       <c r="D86">
-        <v>0.007657257649296896</v>
+        <v>0.009703048676145612</v>
       </c>
       <c r="E86">
-        <v>0.01079881253581536</v>
+        <v>0.01618258932709936</v>
       </c>
       <c r="F86">
-        <v>0.05961680063751534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02279721305728271</v>
+      </c>
+      <c r="G86">
+        <v>-0.05098357236272384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01526287322088869</v>
+        <v>-0.01725997814186967</v>
       </c>
       <c r="C87">
-        <v>0.02517464029486353</v>
+        <v>-0.02620679249890685</v>
       </c>
       <c r="D87">
-        <v>8.474154243436141e-05</v>
+        <v>0.01106052090056964</v>
       </c>
       <c r="E87">
-        <v>0.02868001175127427</v>
+        <v>0.07745454643752205</v>
       </c>
       <c r="F87">
-        <v>0.1090676490421693</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.05958490920479308</v>
+      </c>
+      <c r="G87">
+        <v>-0.04114066996507676</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03949865799858408</v>
+        <v>-0.08835976945708533</v>
       </c>
       <c r="C88">
-        <v>0.03451656647663264</v>
+        <v>-0.04972456222302492</v>
       </c>
       <c r="D88">
-        <v>0.02047674567632387</v>
+        <v>0.02052998835053486</v>
       </c>
       <c r="E88">
-        <v>0.002621555990092491</v>
+        <v>-0.01392339965595804</v>
       </c>
       <c r="F88">
-        <v>0.005429406171257788</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.003573501057741007</v>
+      </c>
+      <c r="G88">
+        <v>-0.01866402471958902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.255000430383039</v>
+        <v>-0.2092316420330463</v>
       </c>
       <c r="C89">
-        <v>-0.003319947399373036</v>
+        <v>0.3808974866923915</v>
       </c>
       <c r="D89">
-        <v>0.1031003692712112</v>
+        <v>-0.0109578109928357</v>
       </c>
       <c r="E89">
-        <v>-0.3555124899842146</v>
+        <v>-0.01212111983393512</v>
       </c>
       <c r="F89">
-        <v>-0.003472261307314198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0289104905549866</v>
+      </c>
+      <c r="G89">
+        <v>-0.028530584493267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1673327248874384</v>
+        <v>-0.1720297931619139</v>
       </c>
       <c r="C90">
-        <v>-0.02910641016405932</v>
+        <v>0.3417623558229603</v>
       </c>
       <c r="D90">
-        <v>0.0798976656915782</v>
+        <v>-0.012937408151983</v>
       </c>
       <c r="E90">
-        <v>-0.287785090680191</v>
+        <v>0.004608031476952482</v>
       </c>
       <c r="F90">
-        <v>-0.05438155453357251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04041859388973115</v>
+      </c>
+      <c r="G90">
+        <v>-0.002863490664773647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.166185589625183</v>
+        <v>-0.2189113039622668</v>
       </c>
       <c r="C91">
-        <v>0.1967165256676367</v>
+        <v>-0.1291884396463441</v>
       </c>
       <c r="D91">
-        <v>0.06212762808498789</v>
+        <v>-0.02648034626207724</v>
       </c>
       <c r="E91">
-        <v>0.1670313583258042</v>
+        <v>-0.08987216285521094</v>
       </c>
       <c r="F91">
-        <v>-0.2356765578447</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1907882881480489</v>
+      </c>
+      <c r="G91">
+        <v>0.02385814693425803</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2450763627631269</v>
+        <v>-0.2070803090985988</v>
       </c>
       <c r="C92">
-        <v>0.1098466087225705</v>
+        <v>0.2786601063208008</v>
       </c>
       <c r="D92">
-        <v>0.1234757969088203</v>
+        <v>-0.05687777441484853</v>
       </c>
       <c r="E92">
-        <v>-0.2864020242962903</v>
+        <v>-0.005673611125030993</v>
       </c>
       <c r="F92">
-        <v>-0.1562884580381557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1336347781711218</v>
+      </c>
+      <c r="G92">
+        <v>-0.05627556875593172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2172253595402465</v>
+        <v>-0.1961572867779243</v>
       </c>
       <c r="C93">
-        <v>-0.002951856041015224</v>
+        <v>0.3393392100515676</v>
       </c>
       <c r="D93">
-        <v>0.1215251702828292</v>
+        <v>-0.01991429381160854</v>
       </c>
       <c r="E93">
-        <v>-0.3473539373986017</v>
+        <v>0.01554235483311932</v>
       </c>
       <c r="F93">
-        <v>-0.00581137081386613</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01795111569079375</v>
+      </c>
+      <c r="G93">
+        <v>0.0003514336715065292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2320153226458837</v>
+        <v>-0.2886892264403965</v>
       </c>
       <c r="C94">
-        <v>0.1863431959922322</v>
+        <v>-0.1413888822722547</v>
       </c>
       <c r="D94">
-        <v>0.09221788758468356</v>
+        <v>-0.01501047641331732</v>
       </c>
       <c r="E94">
-        <v>0.1631340475559271</v>
+        <v>-0.100778948066271</v>
       </c>
       <c r="F94">
-        <v>-0.2519124590871441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3695059645493317</v>
+      </c>
+      <c r="G94">
+        <v>0.1280513614766887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.04663649605547483</v>
+        <v>-0.08159444354773601</v>
       </c>
       <c r="C95">
-        <v>0.06812998790974809</v>
+        <v>-0.07425271663026105</v>
       </c>
       <c r="D95">
-        <v>0.1053337250577005</v>
+        <v>-0.008035613366193515</v>
       </c>
       <c r="E95">
-        <v>0.0386175996497112</v>
+        <v>0.08006495571175952</v>
       </c>
       <c r="F95">
-        <v>0.01120838118681813</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1597236538231265</v>
+      </c>
+      <c r="G95">
+        <v>0.06078463726566925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +2905,13 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +2928,36 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1580693012529928</v>
+        <v>-0.2158417681890604</v>
       </c>
       <c r="C98">
-        <v>0.1110382508324621</v>
+        <v>-0.03842710000685244</v>
       </c>
       <c r="D98">
-        <v>0.0968000982054962</v>
+        <v>-0.01996126813622523</v>
       </c>
       <c r="E98">
-        <v>0.01817710928783897</v>
+        <v>0.07673811422445763</v>
       </c>
       <c r="F98">
-        <v>0.2988307232356776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2535836724375809</v>
+      </c>
+      <c r="G98">
+        <v>0.02540353426447801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +2974,13 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +2997,100 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02414255835974032</v>
+        <v>-0.01326741698146815</v>
       </c>
       <c r="C101">
-        <v>0.01741465698034322</v>
+        <v>-0.01947516013656169</v>
       </c>
       <c r="D101">
-        <v>0.001676600580787371</v>
+        <v>0.008180293926564254</v>
       </c>
       <c r="E101">
-        <v>0.01686994397269466</v>
+        <v>0.03267412605325238</v>
       </c>
       <c r="F101">
-        <v>0.1063349481506863</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02505783548511654</v>
+      </c>
+      <c r="G101">
+        <v>-0.03410159583709659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1060305264294297</v>
+        <v>-0.1272837843114206</v>
       </c>
       <c r="C102">
-        <v>0.08368371087232923</v>
+        <v>-0.07569062390366264</v>
       </c>
       <c r="D102">
-        <v>0.02394723498116259</v>
+        <v>-0.0007604935710398029</v>
       </c>
       <c r="E102">
-        <v>0.08040069930832083</v>
+        <v>-0.04444730074152779</v>
       </c>
       <c r="F102">
-        <v>-0.102094072952167</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06413009325875525</v>
+      </c>
+      <c r="G102">
+        <v>0.01822525769106867</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.02205520977713462</v>
+        <v>-0.00658473940717783</v>
       </c>
       <c r="C103">
-        <v>0.02982289878016763</v>
+        <v>-0.0058489560432161</v>
       </c>
       <c r="D103">
-        <v>-0.006682976089300852</v>
+        <v>0.0002500023414486052</v>
       </c>
       <c r="E103">
-        <v>0.02357148550596801</v>
+        <v>-0.002000018030982027</v>
       </c>
       <c r="F103">
-        <v>-0.01276808246154656</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01102529411545949</v>
+      </c>
+      <c r="G103">
+        <v>-0.01300551596273049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5830481941160939</v>
+        <v>-0.04425282239876813</v>
       </c>
       <c r="C104">
-        <v>-0.6843202463056396</v>
+        <v>0.0486965859809094</v>
       </c>
       <c r="D104">
-        <v>-0.3297015766679467</v>
+        <v>0.9857021372924439</v>
       </c>
       <c r="E104">
-        <v>0.2509495321717795</v>
+        <v>-0.0413159718294286</v>
       </c>
       <c r="F104">
-        <v>-0.0289002385804248</v>
+        <v>-0.03573065213729153</v>
+      </c>
+      <c r="G104">
+        <v>0.001659643410466624</v>
       </c>
     </row>
   </sheetData>
